--- a/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
@@ -488,25 +488,25 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.301952738392765</v>
+        <v>2.378784636632972</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.496894615551315</v>
+        <v>-1.464948555986393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03695440292358398</v>
+        <v>0.03862118721008301</v>
       </c>
       <c r="G2" t="n">
-        <v>0.114814281463623</v>
+        <v>0.1294693946838379</v>
       </c>
       <c r="H2" t="n">
-        <v>0.408940315246582</v>
+        <v>0.547461986541748</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9091722965240479</v>
+        <v>1.01862907409668</v>
       </c>
       <c r="J2" t="n">
-        <v>1.269801139831543</v>
+        <v>1.499059438705444</v>
       </c>
     </row>
     <row r="3">
@@ -524,25 +524,25 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.605285251935972</v>
+        <v>2.724311369245566</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.148701011876974</v>
+        <v>-1.132822434860297</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05525112152099609</v>
+        <v>0.05528616905212402</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6183123588562012</v>
+        <v>0.745286226272583</v>
       </c>
       <c r="H3" t="n">
-        <v>1.485189914703369</v>
+        <v>1.736853361129761</v>
       </c>
       <c r="I3" t="n">
-        <v>2.450814962387085</v>
+        <v>3.015563488006592</v>
       </c>
       <c r="J3" t="n">
-        <v>3.790650129318237</v>
+        <v>4.636109113693237</v>
       </c>
     </row>
     <row r="4">
@@ -560,25 +560,25 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>2.108024069452698</v>
+        <v>2.143716764696119</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5630070432137551</v>
+        <v>-0.4993778302441627</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25575852394104</v>
+        <v>0.2961513996124268</v>
       </c>
       <c r="G4" t="n">
-        <v>1.323548555374146</v>
+        <v>1.552648782730103</v>
       </c>
       <c r="H4" t="n">
-        <v>2.800472974777222</v>
+        <v>3.456081628799438</v>
       </c>
       <c r="I4" t="n">
-        <v>5.015146970748901</v>
+        <v>6.042635917663574</v>
       </c>
       <c r="J4" t="n">
-        <v>7.777567386627197</v>
+        <v>9.503619909286499</v>
       </c>
     </row>
     <row r="5">
@@ -596,25 +596,25 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>2.054696499848259</v>
+        <v>2.020689838275851</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3062510524596767</v>
+        <v>-0.2025511411955139</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4734084606170654</v>
+        <v>0.613062858581543</v>
       </c>
       <c r="G5" t="n">
-        <v>2.19057822227478</v>
+        <v>2.63532567024231</v>
       </c>
       <c r="H5" t="n">
-        <v>4.838177680969238</v>
+        <v>5.864051342010498</v>
       </c>
       <c r="I5" t="n">
-        <v>8.393246412277222</v>
+        <v>10.19915437698364</v>
       </c>
       <c r="J5" t="n">
-        <v>13.0744833946228</v>
+        <v>15.97803926467896</v>
       </c>
     </row>
     <row r="6">
@@ -632,25 +632,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>1.848839844313248</v>
+        <v>1.867003217640646</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06744336328075659</v>
+        <v>0.01358947182865244</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8116803169250488</v>
+        <v>0.9579095840454102</v>
       </c>
       <c r="G6" t="n">
-        <v>3.089715003967285</v>
+        <v>3.940523147583008</v>
       </c>
       <c r="H6" t="n">
-        <v>7.257290840148926</v>
+        <v>8.823793411254883</v>
       </c>
       <c r="I6" t="n">
-        <v>12.7046205997467</v>
+        <v>15.63049387931824</v>
       </c>
       <c r="J6" t="n">
-        <v>13.89366102218628</v>
+        <v>17.11114192008972</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
@@ -488,25 +488,25 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.378784636632972</v>
+        <v>2.459632227686413</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.464948555986393</v>
+        <v>-1.334262547500641</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03862118721008301</v>
+        <v>0.05221152305603027</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1294693946838379</v>
+        <v>0.1942107677459717</v>
       </c>
       <c r="H2" t="n">
-        <v>0.547461986541748</v>
+        <v>0.7446486949920654</v>
       </c>
       <c r="I2" t="n">
-        <v>1.01862907409668</v>
+        <v>1.515681505203247</v>
       </c>
       <c r="J2" t="n">
-        <v>1.499059438705444</v>
+        <v>2.42163872718811</v>
       </c>
     </row>
     <row r="3">
@@ -524,25 +524,25 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.724311369245566</v>
+        <v>2.709427107554085</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.132822434860297</v>
+        <v>-0.9325685183783337</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05528616905212402</v>
+        <v>0.09163761138916016</v>
       </c>
       <c r="G3" t="n">
-        <v>0.745286226272583</v>
+        <v>1.081070184707642</v>
       </c>
       <c r="H3" t="n">
-        <v>1.736853361129761</v>
+        <v>2.68140721321106</v>
       </c>
       <c r="I3" t="n">
-        <v>3.015563488006592</v>
+        <v>4.82155704498291</v>
       </c>
       <c r="J3" t="n">
-        <v>4.636109113693237</v>
+        <v>7.295745372772217</v>
       </c>
     </row>
     <row r="4">
@@ -560,25 +560,25 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>2.143716764696119</v>
+        <v>2.148121726429</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4993778302441627</v>
+        <v>-0.3017253528619426</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2961513996124268</v>
+        <v>0.467050313949585</v>
       </c>
       <c r="G4" t="n">
-        <v>1.552648782730103</v>
+        <v>2.450305223464966</v>
       </c>
       <c r="H4" t="n">
-        <v>3.456081628799438</v>
+        <v>5.463242292404175</v>
       </c>
       <c r="I4" t="n">
-        <v>6.042635917663574</v>
+        <v>9.672840356826782</v>
       </c>
       <c r="J4" t="n">
-        <v>9.503619909286499</v>
+        <v>15.00096893310547</v>
       </c>
     </row>
     <row r="5">
@@ -596,25 +596,25 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>2.020689838275851</v>
+        <v>2.073659464928999</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2025511411955139</v>
+        <v>-0.03241431622898693</v>
       </c>
       <c r="F5" t="n">
-        <v>0.613062858581543</v>
+        <v>0.8952889442443848</v>
       </c>
       <c r="G5" t="n">
-        <v>2.63532567024231</v>
+        <v>4.143294095993042</v>
       </c>
       <c r="H5" t="n">
-        <v>5.864051342010498</v>
+        <v>9.187315225601196</v>
       </c>
       <c r="I5" t="n">
-        <v>10.19915437698364</v>
+        <v>16.20625948905945</v>
       </c>
       <c r="J5" t="n">
-        <v>15.97803926467896</v>
+        <v>25.54240727424622</v>
       </c>
     </row>
     <row r="6">
@@ -632,25 +632,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>1.867003217640646</v>
+        <v>1.885892922498534</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01358947182865244</v>
+        <v>0.1957315825420936</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9579095840454102</v>
+        <v>1.420282363891602</v>
       </c>
       <c r="G6" t="n">
-        <v>3.940523147583008</v>
+        <v>6.250092267990112</v>
       </c>
       <c r="H6" t="n">
-        <v>8.823793411254883</v>
+        <v>14.00621318817139</v>
       </c>
       <c r="I6" t="n">
-        <v>15.63049387931824</v>
+        <v>24.79542684555054</v>
       </c>
       <c r="J6" t="n">
-        <v>17.11114192008972</v>
+        <v>25.75239729881287</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
@@ -488,25 +488,25 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.459632227686413</v>
+        <v>2.199642487975134</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.334262547500641</v>
+        <v>-1.441645218590333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05221152305603027</v>
+        <v>0.0424344539642334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1942107677459717</v>
+        <v>0.1223382949829102</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7446486949920654</v>
+        <v>0.4001083374023438</v>
       </c>
       <c r="I2" t="n">
-        <v>1.515681505203247</v>
+        <v>0.8735775947570801</v>
       </c>
       <c r="J2" t="n">
-        <v>2.42163872718811</v>
+        <v>1.27781867980957</v>
       </c>
     </row>
     <row r="3">
@@ -524,25 +524,25 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.709427107554085</v>
+        <v>2.714142347651607</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.9325685183783337</v>
+        <v>-1.204424783099064</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09163761138916016</v>
+        <v>0.04736781120300293</v>
       </c>
       <c r="G3" t="n">
-        <v>1.081070184707642</v>
+        <v>0.6117269992828369</v>
       </c>
       <c r="H3" t="n">
-        <v>2.68140721321106</v>
+        <v>1.467097282409668</v>
       </c>
       <c r="I3" t="n">
-        <v>4.82155704498291</v>
+        <v>2.557327270507812</v>
       </c>
       <c r="J3" t="n">
-        <v>7.295745372772217</v>
+        <v>3.844002962112427</v>
       </c>
     </row>
     <row r="4">
@@ -560,25 +560,25 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>2.148121726429</v>
+        <v>2.147403920290351</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3017253528619426</v>
+        <v>-0.5771191322556343</v>
       </c>
       <c r="F4" t="n">
-        <v>0.467050313949585</v>
+        <v>0.2450664043426514</v>
       </c>
       <c r="G4" t="n">
-        <v>2.450305223464966</v>
+        <v>1.326264381408691</v>
       </c>
       <c r="H4" t="n">
-        <v>5.463242292404175</v>
+        <v>2.891851663589478</v>
       </c>
       <c r="I4" t="n">
-        <v>9.672840356826782</v>
+        <v>5.101774930953979</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00096893310547</v>
+        <v>7.914711713790894</v>
       </c>
     </row>
     <row r="5">
@@ -596,25 +596,25 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>2.073659464928999</v>
+        <v>2.016440406033876</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.03241431622898693</v>
+        <v>-0.2835353950233434</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8952889442443848</v>
+        <v>0.5181276798248291</v>
       </c>
       <c r="G5" t="n">
-        <v>4.143294095993042</v>
+        <v>2.111709356307983</v>
       </c>
       <c r="H5" t="n">
-        <v>9.187315225601196</v>
+        <v>4.818411350250244</v>
       </c>
       <c r="I5" t="n">
-        <v>16.20625948905945</v>
+        <v>8.518807172775269</v>
       </c>
       <c r="J5" t="n">
-        <v>25.54240727424622</v>
+        <v>13.25911355018616</v>
       </c>
     </row>
     <row r="6">
@@ -632,25 +632,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>1.885892922498534</v>
+        <v>1.867502293605216</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1957315825420936</v>
+        <v>-0.07060110823747535</v>
       </c>
       <c r="F6" t="n">
-        <v>1.420282363891602</v>
+        <v>0.78531813621521</v>
       </c>
       <c r="G6" t="n">
-        <v>6.250092267990112</v>
+        <v>3.260523319244385</v>
       </c>
       <c r="H6" t="n">
-        <v>14.00621318817139</v>
+        <v>7.327126502990723</v>
       </c>
       <c r="I6" t="n">
-        <v>24.79542684555054</v>
+        <v>12.8962996006012</v>
       </c>
       <c r="J6" t="n">
-        <v>25.75239729881287</v>
+        <v>14.00034046173096</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
@@ -488,25 +488,25 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.199642487975134</v>
+        <v>2.284764165198694</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.441645218590333</v>
+        <v>-1.478063988336255</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0424344539642334</v>
+        <v>0.04327392578125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1223382949829102</v>
+        <v>0.09524059295654297</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4001083374023438</v>
+        <v>0.4380424022674561</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8735775947570801</v>
+        <v>0.8991584777832031</v>
       </c>
       <c r="J2" t="n">
-        <v>1.27781867980957</v>
+        <v>1.411620855331421</v>
       </c>
     </row>
     <row r="3">
@@ -524,25 +524,25 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.714142347651607</v>
+        <v>2.679221693051105</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.204424783099064</v>
+        <v>-1.18683889155544</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04736781120300293</v>
+        <v>0.04990458488464355</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6117269992828369</v>
+        <v>0.6090154647827148</v>
       </c>
       <c r="H3" t="n">
-        <v>1.467097282409668</v>
+        <v>1.485142230987549</v>
       </c>
       <c r="I3" t="n">
-        <v>2.557327270507812</v>
+        <v>2.481434106826782</v>
       </c>
       <c r="J3" t="n">
-        <v>3.844002962112427</v>
+        <v>3.865034818649292</v>
       </c>
     </row>
     <row r="4">
@@ -560,25 +560,25 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>2.147403920290351</v>
+        <v>2.132595083263085</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5771191322556343</v>
+        <v>-0.5690838357040924</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2450664043426514</v>
+        <v>0.2514002323150635</v>
       </c>
       <c r="G4" t="n">
-        <v>1.326264381408691</v>
+        <v>1.319285154342651</v>
       </c>
       <c r="H4" t="n">
-        <v>2.891851663589478</v>
+        <v>2.891873598098755</v>
       </c>
       <c r="I4" t="n">
-        <v>5.101774930953979</v>
+        <v>5.142548561096191</v>
       </c>
       <c r="J4" t="n">
-        <v>7.914711713790894</v>
+        <v>7.862677335739136</v>
       </c>
     </row>
     <row r="5">
@@ -596,25 +596,25 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>2.016440406033876</v>
+        <v>2.019187227692623</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2835353950233434</v>
+        <v>-0.2826188070830485</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5181276798248291</v>
+        <v>0.5134575366973877</v>
       </c>
       <c r="G5" t="n">
-        <v>2.111709356307983</v>
+        <v>2.170858144760132</v>
       </c>
       <c r="H5" t="n">
-        <v>4.818411350250244</v>
+        <v>4.809110403060913</v>
       </c>
       <c r="I5" t="n">
-        <v>8.518807172775269</v>
+        <v>8.567142724990845</v>
       </c>
       <c r="J5" t="n">
-        <v>13.25911355018616</v>
+        <v>13.27777814865112</v>
       </c>
     </row>
     <row r="6">
@@ -632,25 +632,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>1.867502293605216</v>
+        <v>1.852834524453448</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.07060110823747535</v>
+        <v>-0.05911786451480248</v>
       </c>
       <c r="F6" t="n">
-        <v>0.78531813621521</v>
+        <v>0.8137195110321045</v>
       </c>
       <c r="G6" t="n">
-        <v>3.260523319244385</v>
+        <v>3.277488470077515</v>
       </c>
       <c r="H6" t="n">
-        <v>7.327126502990723</v>
+        <v>7.351275682449341</v>
       </c>
       <c r="I6" t="n">
-        <v>12.8962996006012</v>
+        <v>12.92470669746399</v>
       </c>
       <c r="J6" t="n">
-        <v>14.00034046173096</v>
+        <v>14.22296619415283</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,32 +481,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCACH</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.284764165198694</v>
+        <v>0.1713492622412555</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.478063988336255</v>
+        <v>-0.8748366299963328</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04327392578125</v>
+        <v>0.2167692184448242</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09524059295654297</v>
+        <v>0.07225155830383301</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4380424022674561</v>
+        <v>0.1251790523529053</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8991584777832031</v>
+        <v>0.1834237575531006</v>
       </c>
       <c r="J2" t="n">
-        <v>1.411620855331421</v>
+        <v>0.2668399810791016</v>
       </c>
     </row>
     <row r="3">
@@ -517,32 +517,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCACH</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.679221693051105</v>
+        <v>1.034497822301786</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.18683889155544</v>
+        <v>-0.8793526726087251</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04990458488464355</v>
+        <v>0.1512496471405029</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6090154647827148</v>
+        <v>0.2257227897644043</v>
       </c>
       <c r="H3" t="n">
-        <v>1.485142230987549</v>
+        <v>0.3675520420074463</v>
       </c>
       <c r="I3" t="n">
-        <v>2.481434106826782</v>
+        <v>0.564741849899292</v>
       </c>
       <c r="J3" t="n">
-        <v>3.865034818649292</v>
+        <v>0.8011364936828613</v>
       </c>
     </row>
     <row r="4">
@@ -553,32 +553,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCACH</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>2.132595083263085</v>
+        <v>1.258865431923037</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5690838357040924</v>
+        <v>-0.608173155871686</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2514002323150635</v>
+        <v>0.2819344997406006</v>
       </c>
       <c r="G4" t="n">
-        <v>1.319285154342651</v>
+        <v>0.4928886890411377</v>
       </c>
       <c r="H4" t="n">
-        <v>2.891873598098755</v>
+        <v>0.8671133518218994</v>
       </c>
       <c r="I4" t="n">
-        <v>5.142548561096191</v>
+        <v>1.492852210998535</v>
       </c>
       <c r="J4" t="n">
-        <v>7.862677335739136</v>
+        <v>2.096784830093384</v>
       </c>
     </row>
     <row r="5">
@@ -589,32 +589,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCACH</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>2.019187227692623</v>
+        <v>1.173574813190436</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2826188070830485</v>
+        <v>-0.248808096092518</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5134575366973877</v>
+        <v>0.6434359550476074</v>
       </c>
       <c r="G5" t="n">
-        <v>2.170858144760132</v>
+        <v>1.066950082778931</v>
       </c>
       <c r="H5" t="n">
-        <v>4.809110403060913</v>
+        <v>1.840716600418091</v>
       </c>
       <c r="I5" t="n">
-        <v>8.567142724990845</v>
+        <v>2.906942844390869</v>
       </c>
       <c r="J5" t="n">
-        <v>13.27777814865112</v>
+        <v>4.275249004364014</v>
       </c>
     </row>
     <row r="6">
@@ -625,32 +625,212 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCACH</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>1.852834524453448</v>
+        <v>1.233483430043853</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.05911786451480248</v>
+        <v>-0.02535557992894065</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8137195110321045</v>
+        <v>1.068801403045654</v>
       </c>
       <c r="G6" t="n">
-        <v>3.277488470077515</v>
+        <v>1.878723621368408</v>
       </c>
       <c r="H6" t="n">
-        <v>7.351275682449341</v>
+        <v>3.301470994949341</v>
       </c>
       <c r="I6" t="n">
-        <v>12.92470669746399</v>
+        <v>5.294199466705322</v>
       </c>
       <c r="J6" t="n">
-        <v>14.22296619415283</v>
+        <v>7.808902263641357</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.494831238107972</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.584078205004458</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02688050270080566</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1271824836730957</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.468620777130127</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8499188423156738</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.357536792755127</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.676270630875524</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.198522087066583</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04976844787597656</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5727050304412842</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.3972327709198</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.478747367858887</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.779680728912354</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.162547486710515</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.6078864491001459</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2290427684783936</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.225980997085571</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.799772500991821</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.862343072891235</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.49078369140625</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.025876078951597</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.3079842949935617</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4822983741760254</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.07780122756958</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.558728933334351</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.114969491958618</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12.68211483955383</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.868634752102748</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.0919623255073465</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.740654468536377</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.170542478561401</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.961844205856323</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12.18713641166687</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.36729335784912</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
@@ -481,32 +481,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOCACH</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1713492622412555</v>
+        <v>-0.1009783927010774</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8748366299963328</v>
+        <v>-0.3680458016989737</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2167692184448242</v>
+        <v>0.8194649219512939</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07225155830383301</v>
+        <v>0.149308443069458</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1251790523529053</v>
+        <v>0.275747537612915</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1834237575531006</v>
+        <v>0.4202978610992432</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2668399810791016</v>
+        <v>0.628253698348999</v>
       </c>
     </row>
     <row r="3">
@@ -517,32 +517,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOCACH</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.034497822301786</v>
+        <v>1.084289442951078</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8793526726087251</v>
+        <v>-0.7695944843074648</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1512496471405029</v>
+        <v>0.1935808658599854</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2257227897644043</v>
+        <v>0.2973146438598633</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3675520420074463</v>
+        <v>0.5249984264373779</v>
       </c>
       <c r="I3" t="n">
-        <v>0.564741849899292</v>
+        <v>0.762812614440918</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8011364936828613</v>
+        <v>1.106132745742798</v>
       </c>
     </row>
     <row r="4">
@@ -553,32 +553,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOCACH</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.258865431923037</v>
+        <v>1.167373171049244</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.608173155871686</v>
+        <v>-0.50661788714698</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2819344997406006</v>
+        <v>0.360680103302002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4928886890411377</v>
+        <v>0.5688657760620117</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8671133518218994</v>
+        <v>1.016670942306519</v>
       </c>
       <c r="I4" t="n">
-        <v>1.492852210998535</v>
+        <v>1.599632024765015</v>
       </c>
       <c r="J4" t="n">
-        <v>2.096784830093384</v>
+        <v>2.348326683044434</v>
       </c>
     </row>
     <row r="5">
@@ -589,32 +589,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOCACH</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>1.173574813190436</v>
+        <v>1.272295978245442</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.248808096092518</v>
+        <v>-0.2920853702392357</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6434359550476074</v>
+        <v>0.5772104263305664</v>
       </c>
       <c r="G5" t="n">
-        <v>1.066950082778931</v>
+        <v>1.042037010192871</v>
       </c>
       <c r="H5" t="n">
-        <v>1.840716600418091</v>
+        <v>1.886023044586182</v>
       </c>
       <c r="I5" t="n">
-        <v>2.906942844390869</v>
+        <v>3.011048316955566</v>
       </c>
       <c r="J5" t="n">
-        <v>4.275249004364014</v>
+        <v>4.481517314910889</v>
       </c>
     </row>
     <row r="6">
@@ -625,32 +625,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOCACH</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>1.233483430043853</v>
+        <v>1.338327185651698</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02535557992894065</v>
+        <v>-0.08259004143472998</v>
       </c>
       <c r="F6" t="n">
-        <v>1.068801403045654</v>
+        <v>0.9284701347351074</v>
       </c>
       <c r="G6" t="n">
-        <v>1.878723621368408</v>
+        <v>1.786497831344604</v>
       </c>
       <c r="H6" t="n">
-        <v>3.301470994949341</v>
+        <v>3.285846710205078</v>
       </c>
       <c r="I6" t="n">
-        <v>5.294199466705322</v>
+        <v>5.374391078948975</v>
       </c>
       <c r="J6" t="n">
-        <v>7.808902263641357</v>
+        <v>7.997008323669434</v>
       </c>
     </row>
     <row r="7">
@@ -668,25 +668,25 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2.494831238107972</v>
+        <v>1.036914985966608</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.584078205004458</v>
+        <v>-0.8399478853403411</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02688050270080566</v>
+        <v>0.1623821258544922</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1271824836730957</v>
+        <v>0.2533509731292725</v>
       </c>
       <c r="H7" t="n">
-        <v>0.468620777130127</v>
+        <v>0.4078965187072754</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8499188423156738</v>
+        <v>0.6347975730895996</v>
       </c>
       <c r="J7" t="n">
-        <v>1.357536792755127</v>
+        <v>0.8486893177032471</v>
       </c>
     </row>
     <row r="8">
@@ -704,25 +704,25 @@
         <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>2.676270630875524</v>
+        <v>0.7984769478969127</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.198522087066583</v>
+        <v>-0.9413746996115286</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04976844787597656</v>
+        <v>0.1180250644683838</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5727050304412842</v>
+        <v>0.2066571712493896</v>
       </c>
       <c r="H8" t="n">
-        <v>1.3972327709198</v>
+        <v>0.241119384765625</v>
       </c>
       <c r="I8" t="n">
-        <v>2.478747367858887</v>
+        <v>0.3218307495117188</v>
       </c>
       <c r="J8" t="n">
-        <v>3.779680728912354</v>
+        <v>0.4744827747344971</v>
       </c>
     </row>
     <row r="9">
@@ -740,25 +740,25 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>2.162547486710515</v>
+        <v>0.8760933144106811</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6078864491001459</v>
+        <v>-0.9562944436928217</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2290427684783936</v>
+        <v>0.1124415397644043</v>
       </c>
       <c r="G9" t="n">
-        <v>1.225980997085571</v>
+        <v>0.2133004665374756</v>
       </c>
       <c r="H9" t="n">
-        <v>2.799772500991821</v>
+        <v>0.2545115947723389</v>
       </c>
       <c r="I9" t="n">
-        <v>4.862343072891235</v>
+        <v>0.3620479106903076</v>
       </c>
       <c r="J9" t="n">
-        <v>7.49078369140625</v>
+        <v>0.4962406158447266</v>
       </c>
     </row>
     <row r="10">
@@ -776,25 +776,25 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>2.025876078951597</v>
+        <v>0.8842269425397042</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3079842949935617</v>
+        <v>-0.9264987978118964</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4822983741760254</v>
+        <v>0.1335411071777344</v>
       </c>
       <c r="G10" t="n">
-        <v>2.07780122756958</v>
+        <v>0.1871950626373291</v>
       </c>
       <c r="H10" t="n">
-        <v>4.558728933334351</v>
+        <v>0.2843258380889893</v>
       </c>
       <c r="I10" t="n">
-        <v>8.114969491958618</v>
+        <v>0.3998050689697266</v>
       </c>
       <c r="J10" t="n">
-        <v>12.68211483955383</v>
+        <v>0.5654575824737549</v>
       </c>
     </row>
     <row r="11">
@@ -812,25 +812,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>1.868634752102748</v>
+        <v>0.7606100573839858</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0919623255073465</v>
+        <v>-0.8366693310012383</v>
       </c>
       <c r="F11" t="n">
-        <v>0.740654468536377</v>
+        <v>0.1682000160217285</v>
       </c>
       <c r="G11" t="n">
-        <v>3.170542478561401</v>
+        <v>0.1974074840545654</v>
       </c>
       <c r="H11" t="n">
-        <v>6.961844205856323</v>
+        <v>0.3162448406219482</v>
       </c>
       <c r="I11" t="n">
-        <v>12.18713641166687</v>
+        <v>0.4251573085784912</v>
       </c>
       <c r="J11" t="n">
-        <v>13.36729335784912</v>
+        <v>0.5601918697357178</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,28 +485,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1009783927010774</v>
+        <v>0.8596674443529913</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3680458016989737</v>
+        <v>-0.6361434532129929</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8194649219512939</v>
+        <v>0.277167797088623</v>
       </c>
       <c r="G2" t="n">
-        <v>0.149308443069458</v>
+        <v>0.3259222507476807</v>
       </c>
       <c r="H2" t="n">
-        <v>0.275747537612915</v>
+        <v>0.5198974609375</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4202978610992432</v>
+        <v>0.7856404781341553</v>
       </c>
       <c r="J2" t="n">
-        <v>0.628253698348999</v>
+        <v>1.095692873001099</v>
       </c>
     </row>
     <row r="3">
@@ -521,28 +521,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.084289442951078</v>
+        <v>1.198314916516812</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.7695944843074648</v>
+        <v>-0.5281324578230622</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1935808658599854</v>
+        <v>0.3315107822418213</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2973146438598633</v>
+        <v>0.5795066356658936</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5249984264373779</v>
+        <v>1.038013219833374</v>
       </c>
       <c r="I3" t="n">
-        <v>0.762812614440918</v>
+        <v>1.551880121231079</v>
       </c>
       <c r="J3" t="n">
-        <v>1.106132745742798</v>
+        <v>2.292104959487915</v>
       </c>
     </row>
     <row r="4">
@@ -557,28 +557,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>1.167373171049244</v>
+        <v>1.260988425241812</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.50661788714698</v>
+        <v>-0.2899845211308401</v>
       </c>
       <c r="F4" t="n">
-        <v>0.360680103302002</v>
+        <v>0.5780272483825684</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5688657760620117</v>
+        <v>1.050413846969604</v>
       </c>
       <c r="H4" t="n">
-        <v>1.016670942306519</v>
+        <v>1.855550289154053</v>
       </c>
       <c r="I4" t="n">
-        <v>1.599632024765015</v>
+        <v>2.976853847503662</v>
       </c>
       <c r="J4" t="n">
-        <v>2.348326683044434</v>
+        <v>4.429572820663452</v>
       </c>
     </row>
     <row r="5">
@@ -593,28 +593,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>1.272295978245442</v>
+        <v>1.329843147348862</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2920853702392357</v>
+        <v>-0.08042314692999404</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5772104263305664</v>
+        <v>0.9312248229980469</v>
       </c>
       <c r="G5" t="n">
-        <v>1.042037010192871</v>
+        <v>1.795927286148071</v>
       </c>
       <c r="H5" t="n">
-        <v>1.886023044586182</v>
+        <v>3.260457038879395</v>
       </c>
       <c r="I5" t="n">
-        <v>3.011048316955566</v>
+        <v>5.323115825653076</v>
       </c>
       <c r="J5" t="n">
-        <v>4.481517314910889</v>
+        <v>7.94477367401123</v>
       </c>
     </row>
     <row r="6">
@@ -625,32 +625,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOCAC</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.338327185651698</v>
+        <v>0.8200830762734194</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.08259004143472998</v>
+        <v>-0.9661273919453379</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9284701347351074</v>
+        <v>0.1287899017333984</v>
       </c>
       <c r="G6" t="n">
-        <v>1.786497831344604</v>
+        <v>0.1483728885650635</v>
       </c>
       <c r="H6" t="n">
-        <v>3.285846710205078</v>
+        <v>0.239006519317627</v>
       </c>
       <c r="I6" t="n">
-        <v>5.374391078948975</v>
+        <v>0.3432178497314453</v>
       </c>
       <c r="J6" t="n">
-        <v>7.997008323669434</v>
+        <v>0.4778025150299072</v>
       </c>
     </row>
     <row r="7">
@@ -665,28 +665,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.036914985966608</v>
+        <v>0.8914185976041964</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8399478853403411</v>
+        <v>-0.9897880984840205</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1623821258544922</v>
+        <v>0.1192202568054199</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2533509731292725</v>
+        <v>0.1485824584960938</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4078965187072754</v>
+        <v>0.2629158496856689</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6347975730895996</v>
+        <v>0.3495569229125977</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8486893177032471</v>
+        <v>0.492978572845459</v>
       </c>
     </row>
     <row r="8">
@@ -701,28 +701,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7984769478969127</v>
+        <v>0.9159096969955587</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9413746996115286</v>
+        <v>-0.9735663356655484</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1180250644683838</v>
+        <v>0.1178083419799805</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2066571712493896</v>
+        <v>0.173675537109375</v>
       </c>
       <c r="H8" t="n">
-        <v>0.241119384765625</v>
+        <v>0.2710726261138916</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3218307495117188</v>
+        <v>0.3809874057769775</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4744827747344971</v>
+        <v>0.5147538185119629</v>
       </c>
     </row>
     <row r="9">
@@ -737,100 +737,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8760933144106811</v>
+        <v>0.7225143882012595</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9562944436928217</v>
+        <v>-0.8291198497890293</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1124415397644043</v>
+        <v>0.1678204536437988</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2133004665374756</v>
+        <v>0.2028906345367432</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2545115947723389</v>
+        <v>0.3054196834564209</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3620479106903076</v>
+        <v>0.4169108867645264</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4962406158447266</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GPU</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CACHE</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>20</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8842269425397042</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.9264987978118964</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.1335411071777344</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.1871950626373291</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.2843258380889893</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.3998050689697266</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5654575824737549</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GPU</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CACHE</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7606100573839858</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.8366693310012383</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1682000160217285</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1974074840545654</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.3162448406219482</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.4251573085784912</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5601918697357178</v>
+        <v>0.5243146419525146</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
@@ -488,25 +488,25 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8596674443529913</v>
+        <v>0.06389647073216073</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6361434532129929</v>
+        <v>-0.1785929783763839</v>
       </c>
       <c r="F2" t="n">
-        <v>0.277167797088623</v>
+        <v>1.036682844161987</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3259222507476807</v>
+        <v>0.3535795211791992</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5198974609375</v>
+        <v>0.5605094432830811</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7856404781341553</v>
+        <v>0.7853915691375732</v>
       </c>
       <c r="J2" t="n">
-        <v>1.095692873001099</v>
+        <v>1.076676607131958</v>
       </c>
     </row>
     <row r="3">
@@ -524,25 +524,25 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.198314916516812</v>
+        <v>1.181192660333795</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5281324578230622</v>
+        <v>-0.513711977713048</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3315107822418213</v>
+        <v>0.349719762802124</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5795066356658936</v>
+        <v>0.5794870853424072</v>
       </c>
       <c r="H3" t="n">
-        <v>1.038013219833374</v>
+        <v>1.017416954040527</v>
       </c>
       <c r="I3" t="n">
-        <v>1.551880121231079</v>
+        <v>1.598930597305298</v>
       </c>
       <c r="J3" t="n">
-        <v>2.292104959487915</v>
+        <v>2.340244293212891</v>
       </c>
     </row>
     <row r="4">
@@ -560,25 +560,25 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>1.260988425241812</v>
+        <v>1.24179085331961</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2899845211308401</v>
+        <v>-0.2692451268000025</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5780272483825684</v>
+        <v>0.6102006435394287</v>
       </c>
       <c r="G4" t="n">
-        <v>1.050413846969604</v>
+        <v>1.073542594909668</v>
       </c>
       <c r="H4" t="n">
-        <v>1.855550289154053</v>
+        <v>1.910135984420776</v>
       </c>
       <c r="I4" t="n">
-        <v>2.976853847503662</v>
+        <v>3.041773557662964</v>
       </c>
       <c r="J4" t="n">
-        <v>4.429572820663452</v>
+        <v>4.520635366439819</v>
       </c>
     </row>
     <row r="5">
@@ -596,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>1.329843147348862</v>
+        <v>1.19203220197122</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.08042314692999404</v>
+        <v>0.009270495104412817</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9312248229980469</v>
+        <v>1.164075136184692</v>
       </c>
       <c r="G5" t="n">
-        <v>1.795927286148071</v>
+        <v>1.978048086166382</v>
       </c>
       <c r="H5" t="n">
-        <v>3.260457038879395</v>
+        <v>3.358186960220337</v>
       </c>
       <c r="I5" t="n">
-        <v>5.323115825653076</v>
+        <v>5.393524408340454</v>
       </c>
       <c r="J5" t="n">
-        <v>7.94477367401123</v>
+        <v>8.028013944625854</v>
       </c>
     </row>
     <row r="6">
@@ -632,25 +632,25 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8200830762734194</v>
+        <v>0.5748658231588918</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.9661273919453379</v>
+        <v>-0.821893565958281</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1287899017333984</v>
+        <v>0.1811096668243408</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1483728885650635</v>
+        <v>0.1824014186859131</v>
       </c>
       <c r="H6" t="n">
-        <v>0.239006519317627</v>
+        <v>0.2273621559143066</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3432178497314453</v>
+        <v>0.3447473049163818</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4778025150299072</v>
+        <v>0.4705367088317871</v>
       </c>
     </row>
     <row r="7">
@@ -668,25 +668,25 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8914185976041964</v>
+        <v>0.8466170648453332</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9897880984840205</v>
+        <v>-0.9571048610324311</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1192202568054199</v>
+        <v>0.1325869560241699</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1485824584960938</v>
+        <v>0.1477103233337402</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2629158496856689</v>
+        <v>0.2629833221435547</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3495569229125977</v>
+        <v>0.3690187931060791</v>
       </c>
       <c r="J7" t="n">
-        <v>0.492978572845459</v>
+        <v>0.4964296817779541</v>
       </c>
     </row>
     <row r="8">
@@ -704,25 +704,25 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9159096969955587</v>
+        <v>0.7383545724716638</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9735663356655484</v>
+        <v>-0.8752800188434375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1178083419799805</v>
+        <v>0.1594805717468262</v>
       </c>
       <c r="G8" t="n">
-        <v>0.173675537109375</v>
+        <v>0.1711025238037109</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2710726261138916</v>
+        <v>0.265695333480835</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3809874057769775</v>
+        <v>0.3928544521331787</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5147538185119629</v>
+        <v>0.506049633026123</v>
       </c>
     </row>
     <row r="9">
@@ -740,25 +740,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7225143882012595</v>
+        <v>0.6427763766284512</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8291198497890293</v>
+        <v>-0.7946723416869869</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1678204536437988</v>
+        <v>0.1875772476196289</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2028906345367432</v>
+        <v>0.1986551284790039</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3054196834564209</v>
+        <v>0.2916433811187744</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4169108867645264</v>
+        <v>0.4211900234222412</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5243146419525146</v>
+        <v>0.5040535926818848</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
@@ -488,25 +488,25 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06389647073216073</v>
+        <v>0.9144824011869881</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1785929783763839</v>
+        <v>-0.6306043568636363</v>
       </c>
       <c r="F2" t="n">
-        <v>1.036682844161987</v>
+        <v>0.2846784591674805</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3535795211791992</v>
+        <v>0.3218340873718262</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5605094432830811</v>
+        <v>0.5927681922912598</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7853915691375732</v>
+        <v>0.8812894821166992</v>
       </c>
       <c r="J2" t="n">
-        <v>1.076676607131958</v>
+        <v>1.170476675033569</v>
       </c>
     </row>
     <row r="3">
@@ -524,25 +524,25 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.181192660333795</v>
+        <v>1.163785564900932</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.513711977713048</v>
+        <v>-0.5067042721773671</v>
       </c>
       <c r="F3" t="n">
-        <v>0.349719762802124</v>
+        <v>0.355924129486084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5794870853424072</v>
+        <v>0.585273265838623</v>
       </c>
       <c r="H3" t="n">
-        <v>1.017416954040527</v>
+        <v>1.001186847686768</v>
       </c>
       <c r="I3" t="n">
-        <v>1.598930597305298</v>
+        <v>1.578970193862915</v>
       </c>
       <c r="J3" t="n">
-        <v>2.340244293212891</v>
+        <v>2.336654901504517</v>
       </c>
     </row>
     <row r="4">
@@ -560,25 +560,25 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>1.24179085331961</v>
+        <v>1.091491126984576</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2692451268000025</v>
+        <v>-0.1733700957209037</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6102006435394287</v>
+        <v>0.7791807651519775</v>
       </c>
       <c r="G4" t="n">
-        <v>1.073542594909668</v>
+        <v>1.166099548339844</v>
       </c>
       <c r="H4" t="n">
-        <v>1.910135984420776</v>
+        <v>1.984739065170288</v>
       </c>
       <c r="I4" t="n">
-        <v>3.041773557662964</v>
+        <v>3.10410737991333</v>
       </c>
       <c r="J4" t="n">
-        <v>4.520635366439819</v>
+        <v>4.513810873031616</v>
       </c>
     </row>
     <row r="5">
@@ -596,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>1.19203220197122</v>
+        <v>1.302877331678625</v>
       </c>
       <c r="E5" t="n">
-        <v>0.009270495104412817</v>
+        <v>-0.05863525536178951</v>
       </c>
       <c r="F5" t="n">
-        <v>1.164075136184692</v>
+        <v>0.9833605289459229</v>
       </c>
       <c r="G5" t="n">
-        <v>1.978048086166382</v>
+        <v>1.839489459991455</v>
       </c>
       <c r="H5" t="n">
-        <v>3.358186960220337</v>
+        <v>3.328299283981323</v>
       </c>
       <c r="I5" t="n">
-        <v>5.393524408340454</v>
+        <v>5.38979697227478</v>
       </c>
       <c r="J5" t="n">
-        <v>8.028013944625854</v>
+        <v>8.026698350906372</v>
       </c>
     </row>
     <row r="6">
@@ -632,25 +632,25 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5748658231588918</v>
+        <v>0.8628355815822999</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.821893565958281</v>
+        <v>-0.940216879825592</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1811096668243408</v>
+        <v>0.1372456550598145</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1824014186859131</v>
+        <v>0.1546950340270996</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2273621559143066</v>
+        <v>0.2759726047515869</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3447473049163818</v>
+        <v>0.4195437431335449</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4705367088317871</v>
+        <v>0.5038356781005859</v>
       </c>
     </row>
     <row r="7">
@@ -668,25 +668,25 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8466170648453332</v>
+        <v>0.9849728908280007</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9571048610324311</v>
+        <v>-0.9619983211668541</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1325869560241699</v>
+        <v>0.1257081031799316</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1477103233337402</v>
+        <v>0.1719796657562256</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2629833221435547</v>
+        <v>0.3056604862213135</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3690187931060791</v>
+        <v>0.4436967372894287</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4964296817779541</v>
+        <v>0.5899016857147217</v>
       </c>
     </row>
     <row r="8">
@@ -704,25 +704,25 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7383545724716638</v>
+        <v>0.8771362617773057</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8752800188434375</v>
+        <v>-0.8796992058464241</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1594805717468262</v>
+        <v>0.1557333469390869</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1711025238037109</v>
+        <v>0.1861276626586914</v>
       </c>
       <c r="H8" t="n">
-        <v>0.265695333480835</v>
+        <v>0.3245184421539307</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3928544521331787</v>
+        <v>0.459099292755127</v>
       </c>
       <c r="J8" t="n">
-        <v>0.506049633026123</v>
+        <v>0.6164398193359375</v>
       </c>
     </row>
     <row r="9">
@@ -740,25 +740,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6427763766284512</v>
+        <v>0.8505382725724153</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7946723416869869</v>
+        <v>-0.8552683196257184</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1875772476196289</v>
+        <v>0.1599037647247314</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1986551284790039</v>
+        <v>0.2136585712432861</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2916433811187744</v>
+        <v>0.3017141819000244</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4211900234222412</v>
+        <v>0.4836232662200928</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5040535926818848</v>
+        <v>0.6228733062744141</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,11 @@
           <t>5 K</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,25 +493,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9144824011869881</v>
+        <v>0.6907832473213065</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6306043568636363</v>
+        <v>-0.5258081027354672</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2846784591674805</v>
+        <v>0.4084780216217041</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3218340873718262</v>
+        <v>0.3088009357452393</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5927681922912598</v>
+        <v>0.5267641544342041</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8812894821166992</v>
+        <v>0.759476900100708</v>
       </c>
       <c r="J2" t="n">
-        <v>1.170476675033569</v>
+        <v>1.271291017532349</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6549622058868408</v>
       </c>
     </row>
     <row r="3">
@@ -524,25 +532,28 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.163785564900932</v>
+        <v>1.174273649052755</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5067042721773671</v>
+        <v>-0.4720420189917751</v>
       </c>
       <c r="F3" t="n">
-        <v>0.355924129486084</v>
+        <v>0.3974924087524414</v>
       </c>
       <c r="G3" t="n">
-        <v>0.585273265838623</v>
+        <v>0.6118359565734863</v>
       </c>
       <c r="H3" t="n">
-        <v>1.001186847686768</v>
+        <v>1.051247358322144</v>
       </c>
       <c r="I3" t="n">
-        <v>1.578970193862915</v>
+        <v>1.827249526977539</v>
       </c>
       <c r="J3" t="n">
-        <v>2.336654901504517</v>
+        <v>2.581374645233154</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.293839979171753</v>
       </c>
     </row>
     <row r="4">
@@ -560,25 +571,28 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>1.091491126984576</v>
+        <v>1.279852077099292</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1733700957209037</v>
+        <v>-0.2971397155721869</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7791807651519775</v>
+        <v>0.5721006393432617</v>
       </c>
       <c r="G4" t="n">
-        <v>1.166099548339844</v>
+        <v>1.029902458190918</v>
       </c>
       <c r="H4" t="n">
-        <v>1.984739065170288</v>
+        <v>1.878850936889648</v>
       </c>
       <c r="I4" t="n">
-        <v>3.10410737991333</v>
+        <v>3.016864538192749</v>
       </c>
       <c r="J4" t="n">
-        <v>4.513810873031616</v>
+        <v>4.48362398147583</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.196268510818482</v>
       </c>
     </row>
     <row r="5">
@@ -596,25 +610,28 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>1.302877331678625</v>
+        <v>1.332237934752416</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.05863525536178951</v>
+        <v>-0.07962931106109025</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9833605289459229</v>
+        <v>0.9359252452850342</v>
       </c>
       <c r="G5" t="n">
-        <v>1.839489459991455</v>
+        <v>1.788041591644287</v>
       </c>
       <c r="H5" t="n">
-        <v>3.328299283981323</v>
+        <v>3.288459062576294</v>
       </c>
       <c r="I5" t="n">
-        <v>5.38979697227478</v>
+        <v>5.350008010864258</v>
       </c>
       <c r="J5" t="n">
-        <v>8.026698350906372</v>
+        <v>7.995614767074585</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.871609735488891</v>
       </c>
     </row>
     <row r="6">
@@ -632,25 +649,28 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8628355815822999</v>
+        <v>0.8272354693833797</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.940216879825592</v>
+        <v>-0.8931554431971946</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1372456550598145</v>
+        <v>0.1483454704284668</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1546950340270996</v>
+        <v>0.186246395111084</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2759726047515869</v>
+        <v>0.2830514907836914</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4195437431335449</v>
+        <v>0.4037642478942871</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5038356781005859</v>
+        <v>0.5686430931091309</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.318010139465332</v>
       </c>
     </row>
     <row r="7">
@@ -668,25 +688,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9849728908280007</v>
+        <v>1.110151074120658</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9619983211668541</v>
+        <v>-1.027850643192824</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1257081031799316</v>
+        <v>0.1059384346008301</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1719796657562256</v>
+        <v>0.1672196388244629</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3056604862213135</v>
+        <v>0.3030979633331299</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4436967372894287</v>
+        <v>0.4429175853729248</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5899016857147217</v>
+        <v>0.6204478740692139</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3279242992401123</v>
       </c>
     </row>
     <row r="8">
@@ -704,25 +727,28 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8771362617773057</v>
+        <v>0.9939537315665412</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8796992058464241</v>
+        <v>-0.9378122318386969</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1557333469390869</v>
+        <v>0.130333423614502</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1861276626586914</v>
+        <v>0.1903893947601318</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3245184421539307</v>
+        <v>0.3259763717651367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.459099292755127</v>
+        <v>0.4657998085021973</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6164398193359375</v>
+        <v>0.6330890655517578</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3491176128387451</v>
       </c>
     </row>
     <row r="9">
@@ -740,25 +766,28 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8505382725724153</v>
+        <v>0.8010808237763417</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8552683196257184</v>
+        <v>-0.8001452598912129</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1599037647247314</v>
+        <v>0.180124044418335</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2136585712432861</v>
+        <v>0.2306962013244629</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3017141819000244</v>
+        <v>0.3486192226409912</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4836232662200928</v>
+        <v>0.4913051128387451</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6228733062744141</v>
+        <v>0.6494581699371338</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3800405502319336</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
@@ -493,28 +493,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6907832473213065</v>
+        <v>0.7006868638352656</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5258081027354672</v>
+        <v>-0.5545626704872414</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4084780216217041</v>
+        <v>0.3629651069641113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3088009357452393</v>
+        <v>0.3059751987457275</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5267641544342041</v>
+        <v>0.521188497543335</v>
       </c>
       <c r="I2" t="n">
-        <v>0.759476900100708</v>
+        <v>0.7700035572052002</v>
       </c>
       <c r="J2" t="n">
-        <v>1.271291017532349</v>
+        <v>1.083934307098389</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6549622058868408</v>
+        <v>0.6088133335113526</v>
       </c>
     </row>
     <row r="3">
@@ -532,28 +532,28 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.174273649052755</v>
+        <v>1.095445591617473</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4720420189917751</v>
+        <v>-0.4592340735911086</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3974924087524414</v>
+        <v>0.4208815097808838</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6118359565734863</v>
+        <v>0.5646569728851318</v>
       </c>
       <c r="H3" t="n">
-        <v>1.051247358322144</v>
+        <v>1.006724834442139</v>
       </c>
       <c r="I3" t="n">
-        <v>1.827249526977539</v>
+        <v>1.678543329238892</v>
       </c>
       <c r="J3" t="n">
-        <v>2.581374645233154</v>
+        <v>2.386006832122803</v>
       </c>
       <c r="K3" t="n">
-        <v>1.293839979171753</v>
+        <v>1.21136269569397</v>
       </c>
     </row>
     <row r="4">
@@ -571,28 +571,28 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>1.279852077099292</v>
+        <v>1.174671291677878</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2971397155721869</v>
+        <v>-0.2200833263027031</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5721006393432617</v>
+        <v>0.6883540153503418</v>
       </c>
       <c r="G4" t="n">
-        <v>1.029902458190918</v>
+        <v>1.135392904281616</v>
       </c>
       <c r="H4" t="n">
-        <v>1.878850936889648</v>
+        <v>1.976398468017578</v>
       </c>
       <c r="I4" t="n">
-        <v>3.016864538192749</v>
+        <v>3.113874673843384</v>
       </c>
       <c r="J4" t="n">
-        <v>4.48362398147583</v>
+        <v>4.568821668624878</v>
       </c>
       <c r="K4" t="n">
-        <v>2.196268510818482</v>
+        <v>2.29656834602356</v>
       </c>
     </row>
     <row r="5">
@@ -610,28 +610,28 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>1.332237934752416</v>
+        <v>1.237411065385654</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.07962931106109025</v>
+        <v>-0.01073856284517967</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9359252452850342</v>
+        <v>1.108863353729248</v>
       </c>
       <c r="G5" t="n">
-        <v>1.788041591644287</v>
+        <v>1.936160087585449</v>
       </c>
       <c r="H5" t="n">
-        <v>3.288459062576294</v>
+        <v>3.43488335609436</v>
       </c>
       <c r="I5" t="n">
-        <v>5.350008010864258</v>
+        <v>5.501534938812256</v>
       </c>
       <c r="J5" t="n">
-        <v>7.995614767074585</v>
+        <v>8.145053148269653</v>
       </c>
       <c r="K5" t="n">
-        <v>3.871609735488891</v>
+        <v>4.025298976898194</v>
       </c>
     </row>
     <row r="6">
@@ -649,28 +649,28 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8272354693833797</v>
+        <v>0.7705815023098572</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8931554431971946</v>
+        <v>-0.8375964233824812</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1483454704284668</v>
+        <v>0.167994499206543</v>
       </c>
       <c r="G6" t="n">
-        <v>0.186246395111084</v>
+        <v>0.2071757316589355</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2830514907836914</v>
+        <v>0.2930996417999268</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4037642478942871</v>
+        <v>0.4339995384216309</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5686430931091309</v>
+        <v>0.5862164497375488</v>
       </c>
       <c r="K6" t="n">
-        <v>0.318010139465332</v>
+        <v>0.337697172164917</v>
       </c>
     </row>
     <row r="7">
@@ -688,28 +688,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.110151074120658</v>
+        <v>1.062342888392164</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.027850643192824</v>
+        <v>-0.9796985139620727</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1059384346008301</v>
+        <v>0.1189603805541992</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1672196388244629</v>
+        <v>0.1818513870239258</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3030979633331299</v>
+        <v>0.3066012859344482</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4429175853729248</v>
+        <v>0.4847040176391602</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6204478740692139</v>
+        <v>0.6355376243591309</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3279242992401123</v>
+        <v>0.3455309391021729</v>
       </c>
     </row>
     <row r="8">
@@ -727,28 +727,28 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9939537315665412</v>
+        <v>0.9026358219734044</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9378122318386969</v>
+        <v>-0.8703321859131139</v>
       </c>
       <c r="F8" t="n">
-        <v>0.130333423614502</v>
+        <v>0.1532528400421143</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1903893947601318</v>
+        <v>0.2069542407989502</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3259763717651367</v>
+        <v>0.3454906940460205</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4657998085021973</v>
+        <v>0.4702723026275635</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6330890655517578</v>
+        <v>0.6501505374908447</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3491176128387451</v>
+        <v>0.3652241230010986</v>
       </c>
     </row>
     <row r="9">
@@ -766,28 +766,28 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8010808237763417</v>
+        <v>0.8681132859457419</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8001452598912129</v>
+        <v>-0.8281446533053557</v>
       </c>
       <c r="F9" t="n">
-        <v>0.180124044418335</v>
+        <v>0.169079065322876</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2306962013244629</v>
+        <v>0.2236981391906738</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3486192226409912</v>
+        <v>0.356609582901001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4913051128387451</v>
+        <v>0.512136697769165</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6494581699371338</v>
+        <v>0.6682062149047852</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3800405502319336</v>
+        <v>0.3859459400177002</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,31 +490,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7006868638352656</v>
+        <v>1.083956631056162</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5545626704872414</v>
+        <v>-1.051826192207997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3629651069641113</v>
+        <v>0.1051750183105469</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3059751987457275</v>
+        <v>0.150860071182251</v>
       </c>
       <c r="H2" t="n">
-        <v>0.521188497543335</v>
+        <v>0.2481303215026855</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7700035572052002</v>
+        <v>0.4212357997894287</v>
       </c>
       <c r="J2" t="n">
-        <v>1.083934307098389</v>
+        <v>0.5955514907836914</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6088133335113526</v>
+        <v>0.3041905403137207</v>
       </c>
     </row>
     <row r="3">
@@ -529,31 +529,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.095445591617473</v>
+        <v>1.121140200024925</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4592340735911086</v>
+        <v>-0.8199343193593579</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4208815097808838</v>
+        <v>0.1750340461730957</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5646569728851318</v>
+        <v>0.274090051651001</v>
       </c>
       <c r="H3" t="n">
-        <v>1.006724834442139</v>
+        <v>0.4509055614471436</v>
       </c>
       <c r="I3" t="n">
-        <v>1.678543329238892</v>
+        <v>0.7358946800231934</v>
       </c>
       <c r="J3" t="n">
-        <v>2.386006832122803</v>
+        <v>1.070200204849243</v>
       </c>
       <c r="K3" t="n">
-        <v>1.21136269569397</v>
+        <v>0.5412249088287353</v>
       </c>
     </row>
     <row r="4">
@@ -568,31 +568,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.174671291677878</v>
+        <v>1.201948977879264</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2200833263027031</v>
+        <v>-0.5276507925083432</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6883540153503418</v>
+        <v>0.3348593711853027</v>
       </c>
       <c r="G4" t="n">
-        <v>1.135392904281616</v>
+        <v>0.5901346206665039</v>
       </c>
       <c r="H4" t="n">
-        <v>1.976398468017578</v>
+        <v>0.9785811901092529</v>
       </c>
       <c r="I4" t="n">
-        <v>3.113874673843384</v>
+        <v>1.59687328338623</v>
       </c>
       <c r="J4" t="n">
-        <v>4.568821668624878</v>
+        <v>2.35036301612854</v>
       </c>
       <c r="K4" t="n">
-        <v>2.29656834602356</v>
+        <v>1.170162296295166</v>
       </c>
     </row>
     <row r="5">
@@ -607,31 +607,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>1.237411065385654</v>
+        <v>1.253998640151864</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01073856284517967</v>
+        <v>-0.2812877776166846</v>
       </c>
       <c r="F5" t="n">
-        <v>1.108863353729248</v>
+        <v>0.592252254486084</v>
       </c>
       <c r="G5" t="n">
-        <v>1.936160087585449</v>
+        <v>1.063877105712891</v>
       </c>
       <c r="H5" t="n">
-        <v>3.43488335609436</v>
+        <v>1.857198238372803</v>
       </c>
       <c r="I5" t="n">
-        <v>5.501534938812256</v>
+        <v>3.023914337158203</v>
       </c>
       <c r="J5" t="n">
-        <v>8.145053148269653</v>
+        <v>4.487718343734741</v>
       </c>
       <c r="K5" t="n">
-        <v>4.025298976898194</v>
+        <v>2.204992055892944</v>
       </c>
     </row>
     <row r="6">
@@ -642,35 +642,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7705815023098572</v>
+        <v>1.323642345757567</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8375964233824812</v>
+        <v>-0.07359936998643671</v>
       </c>
       <c r="F6" t="n">
-        <v>0.167994499206543</v>
+        <v>0.9472346305847168</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2071757316589355</v>
+        <v>1.817189455032349</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2930996417999268</v>
+        <v>3.273620367050171</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4339995384216309</v>
+        <v>5.36151647567749</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5862164497375488</v>
+        <v>8.015337467193604</v>
       </c>
       <c r="K6" t="n">
-        <v>0.337697172164917</v>
+        <v>3.882979679107666</v>
       </c>
     </row>
     <row r="7">
@@ -685,31 +685,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.062342888392164</v>
+        <v>0.9688647392154911</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9796985139620727</v>
+        <v>-1.084463572793356</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1189603805541992</v>
+        <v>0.1049587726593018</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1818513870239258</v>
+        <v>0.1077389717102051</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3066012859344482</v>
+        <v>0.2218317985534668</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4847040176391602</v>
+        <v>0.3378045558929443</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6355376243591309</v>
+        <v>0.461367130279541</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3455309391021729</v>
+        <v>0.2467402458190918</v>
       </c>
     </row>
     <row r="8">
@@ -724,31 +724,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9026358219734044</v>
+        <v>1.056425484008841</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8703321859131139</v>
+        <v>-1.118725989500177</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1532528400421143</v>
+        <v>0.0898432731628418</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2069542407989502</v>
+        <v>0.1183111667633057</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3454906940460205</v>
+        <v>0.2418785095214844</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4702723026275635</v>
+        <v>0.3302838802337646</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6501505374908447</v>
+        <v>0.471926212310791</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3652241230010986</v>
+        <v>0.2504486083984375</v>
       </c>
     </row>
     <row r="9">
@@ -763,31 +763,109 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8782674062715243</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.9899480733532534</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1211826801300049</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1455566883087158</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2474098205566406</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3536944389343262</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4873251914978027</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.271033763885498</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8111835729598318</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.9244932466535684</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1413810253143311</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.15883469581604</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2732048034667969</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3724312782287598</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5072948932647705</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2906293392181397</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>25</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.8681132859457419</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.8281446533053557</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.169079065322876</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.2236981391906738</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.356609582901001</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.512136697769165</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6682062149047852</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.3859459400177002</v>
+      <c r="D11" t="n">
+        <v>0.7652542360962356</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.8784277406872802</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1640355587005615</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1588883399963379</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2859926223754883</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3960525989532471</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5355818271636963</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3081101894378662</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_25P_5K.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPU</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -490,37 +490,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.083956631056162</v>
+        <v>2.083241924236125</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.051826192207997</v>
+        <v>-0.05148941512828127</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1051750183105469</v>
+        <v>0.8519995212554932</v>
       </c>
       <c r="G2" t="n">
-        <v>0.150860071182251</v>
+        <v>3.936314821243286</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2481303215026855</v>
+        <v>9.166735172271729</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4212357997894287</v>
+        <v>16.14262342453003</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5955514907836914</v>
+        <v>23.89310455322266</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3041905403137207</v>
+        <v>10.79815549850464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GPU</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -529,37 +529,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.121140200024925</v>
+        <v>2.125892866864045</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8199343193593579</v>
+        <v>0.3548794435739734</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1750340461730957</v>
+        <v>2.003383636474609</v>
       </c>
       <c r="G3" t="n">
-        <v>0.274090051651001</v>
+        <v>12.8772029876709</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4509055614471436</v>
+        <v>22.07826781272888</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7358946800231934</v>
+        <v>40.13045573234558</v>
       </c>
       <c r="J3" t="n">
-        <v>1.070200204849243</v>
+        <v>68.46821188926697</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5412249088287353</v>
+        <v>29.11150441169739</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GPU</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -568,37 +568,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>1.201948977879264</v>
+        <v>2.273053850993297</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5276507925083432</v>
+        <v>0.600352328937985</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3348593711853027</v>
+        <v>3.475160360336304</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5901346206665039</v>
+        <v>25.35184693336487</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9785811901092529</v>
+        <v>48.08623290061951</v>
       </c>
       <c r="I4" t="n">
-        <v>1.59687328338623</v>
+        <v>81.91709589958191</v>
       </c>
       <c r="J4" t="n">
-        <v>2.35036301612854</v>
+        <v>153.9830040931702</v>
       </c>
       <c r="K4" t="n">
-        <v>1.170162296295166</v>
+        <v>62.56266803741455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GPU</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -607,31 +607,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>1.253998640151864</v>
+        <v>2.242377301000375</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2812877776166846</v>
+        <v>0.9065398894180391</v>
       </c>
       <c r="F5" t="n">
-        <v>0.592252254486084</v>
+        <v>6.488561868667603</v>
       </c>
       <c r="G5" t="n">
-        <v>1.063877105712891</v>
+        <v>53.69244241714478</v>
       </c>
       <c r="H5" t="n">
-        <v>1.857198238372803</v>
+        <v>103.1515197753906</v>
       </c>
       <c r="I5" t="n">
-        <v>3.023914337158203</v>
+        <v>175.148234128952</v>
       </c>
       <c r="J5" t="n">
-        <v>4.487718343734741</v>
+        <v>248.9231443405151</v>
       </c>
       <c r="K5" t="n">
-        <v>2.204992055892944</v>
+        <v>117.480780506134</v>
       </c>
     </row>
     <row r="6">
@@ -646,31 +646,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.323642345757567</v>
+        <v>1.159620239564153</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.07359936998643671</v>
+        <v>-0.732813318276174</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9472346305847168</v>
+        <v>0.2121074199676514</v>
       </c>
       <c r="G6" t="n">
-        <v>1.817189455032349</v>
+        <v>0.3323092460632324</v>
       </c>
       <c r="H6" t="n">
-        <v>3.273620367050171</v>
+        <v>0.6367666721343994</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36151647567749</v>
+        <v>0.9201314449310303</v>
       </c>
       <c r="J6" t="n">
-        <v>8.015337467193604</v>
+        <v>1.352276802062988</v>
       </c>
       <c r="K6" t="n">
-        <v>3.882979679107666</v>
+        <v>0.6907183170318604</v>
       </c>
     </row>
     <row r="7">
@@ -681,35 +681,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9688647392154911</v>
+        <v>1.168496986101406</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.084463572793356</v>
+        <v>-0.4798352323522788</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1049587726593018</v>
+        <v>0.3729615211486816</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1077389717102051</v>
+        <v>0.6241416931152344</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2218317985534668</v>
+        <v>1.102185010910034</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3378045558929443</v>
+        <v>1.770132303237915</v>
       </c>
       <c r="J7" t="n">
-        <v>0.461367130279541</v>
+        <v>2.36120343208313</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2467402458190918</v>
+        <v>1.246124792098999</v>
       </c>
     </row>
     <row r="8">
@@ -720,35 +720,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>1.056425484008841</v>
+        <v>1.288353557581873</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.118725989500177</v>
+        <v>-0.2745211725924034</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0898432731628418</v>
+        <v>0.5993094444274902</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1183111667633057</v>
+        <v>1.101490020751953</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2418785095214844</v>
+        <v>2.007832765579224</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3302838802337646</v>
+        <v>3.187805652618408</v>
       </c>
       <c r="J8" t="n">
-        <v>0.471926212310791</v>
+        <v>4.789207458496094</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2504486083984375</v>
+        <v>2.337129068374634</v>
       </c>
     </row>
     <row r="9">
@@ -759,113 +759,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8782674062715243</v>
+        <v>1.339380399107345</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9899480733532534</v>
+        <v>-0.06806089315203864</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1211826801300049</v>
+        <v>0.9591107368469238</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1455566883087158</v>
+        <v>1.850394487380981</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2474098205566406</v>
+        <v>3.412793874740601</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3536944389343262</v>
+        <v>5.541138648986816</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4873251914978027</v>
+        <v>8.292165756225586</v>
       </c>
       <c r="K9" t="n">
-        <v>0.271033763885498</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GPU</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CACHE</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>20</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8111835729598318</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.9244932466535684</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.1413810253143311</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.15883469581604</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.2732048034667969</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.3724312782287598</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5072948932647705</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.2906293392181397</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GPU</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CACHE</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7652542360962356</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.8784277406872802</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1640355587005615</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1588883399963379</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.2859926223754883</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.3960525989532471</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5355818271636963</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.3081101894378662</v>
+        <v>4.011120700836182</v>
       </c>
     </row>
   </sheetData>
